--- a/クリックポスト発送情報/20200615/英子日本发货表格6.15.xlsx
+++ b/クリックポスト発送情報/20200615/英子日本发货表格6.15.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>序号</t>
   </si>
@@ -309,10 +309,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>628479738666</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>628479738655</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -326,10 +322,6 @@
   </si>
   <si>
     <t>628479738622</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>628479738611</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -354,7 +346,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -510,12 +502,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -527,9 +522,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1477,9 +1469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FY258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1854,7 +1846,7 @@
       <c r="I2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="22" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1881,7 +1873,7 @@
       <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1908,7 +1900,7 @@
       <c r="I4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="22" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1935,7 +1927,7 @@
       <c r="I5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="22" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1962,9 +1954,7 @@
       <c r="I6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="26" t="s">
-        <v>86</v>
-      </c>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
       <c r="A7" s="14" t="s">
@@ -1989,8 +1979,8 @@
       <c r="I7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="26" t="s">
-        <v>87</v>
+      <c r="K7" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
@@ -2016,8 +2006,8 @@
       <c r="I8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>88</v>
+      <c r="K8" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
@@ -2043,8 +2033,8 @@
       <c r="I9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="26" t="s">
-        <v>89</v>
+      <c r="K9" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
@@ -2070,12 +2060,12 @@
       <c r="I10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="26" t="s">
-        <v>90</v>
+      <c r="K10" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="15"/>
@@ -2085,24 +2075,22 @@
       <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="24">
         <v>3470063</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="26" t="s">
-        <v>91</v>
-      </c>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="15"/>
       <c r="C12" s="12" t="s">
         <v>63</v>
@@ -2110,12 +2098,12 @@
       <c r="D12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="K12" s="26" t="s">
-        <v>92</v>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="K12" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:181" ht="121.95" customHeight="1">
@@ -2141,8 +2129,8 @@
       <c r="I13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="26" t="s">
-        <v>93</v>
+      <c r="K13" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:181" ht="121.95" customHeight="1">
@@ -2168,8 +2156,8 @@
       <c r="I14" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="26" t="s">
-        <v>94</v>
+      <c r="K14" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:181" ht="121.95" customHeight="1">
@@ -2195,8 +2183,8 @@
       <c r="I15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="26" t="s">
-        <v>95</v>
+      <c r="K15" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:181" ht="121.95" customHeight="1"/>

--- a/クリックポスト発送情報/20200615/英子日本发货表格6.15.xlsx
+++ b/クリックポスト発送情報/20200615/英子日本发货表格6.15.xlsx
@@ -62,282 +62,315 @@
   </si>
   <si>
     <t xml:space="preserve"> 
+0823876238</t>
+  </si>
+  <si>
+    <t>kou-ran-10011380</t>
+  </si>
+  <si>
+    <t>米白
+サイズ：XL</t>
+  </si>
+  <si>
+    <t>宮崎県宮崎市矢の先町122-1パークビル402</t>
+  </si>
+  <si>
+    <t>伊野 由紀子</t>
+  </si>
+  <si>
+    <t>09013698124</t>
+  </si>
+  <si>
+    <t>kou-ran-10011391</t>
+  </si>
+  <si>
+    <t>深蓝 021款
+サイズ：[30]</t>
+  </si>
+  <si>
+    <t>東京都目黒区八雲3-4-9二階</t>
+  </si>
+  <si>
+    <t>岩崎 邦夫</t>
+  </si>
+  <si>
+    <t>09032371171</t>
+  </si>
+  <si>
+    <t>kou-ran-10011394</t>
+  </si>
+  <si>
+    <t>浅蓝 013款
+サイズ：[30]</t>
+  </si>
+  <si>
+    <t>大阪府枚方市中宮東之町15-10-405クレール88 405号</t>
+  </si>
+  <si>
+    <t>中野 健三</t>
+  </si>
+  <si>
+    <t>09089814408</t>
+  </si>
+  <si>
+    <t>kou-ran-10011395</t>
+  </si>
+  <si>
+    <t>蓝色 206款
+サイズ：[38]</t>
+  </si>
+  <si>
+    <t>宮城県登米市米山町字桜岡今泉303</t>
+  </si>
+  <si>
+    <t>菅原 功人</t>
+  </si>
+  <si>
+    <t>0220552690</t>
+  </si>
+  <si>
+    <t>kou-ran-10011401</t>
+  </si>
+  <si>
+    <t>浅蓝 021款
+サイズ：[29]</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区祇園町2-21フェルト627-412号</t>
+  </si>
+  <si>
+    <t>中田 啓一</t>
+  </si>
+  <si>
+    <t>09039921853</t>
+  </si>
+  <si>
+    <t>kou-ran-10011407</t>
+  </si>
+  <si>
+    <t>深蓝 021款
+サイズ：[28]</t>
+  </si>
+  <si>
+    <t>宮城県黒川郡大和町もみじケ丘１－３１－１７</t>
+  </si>
+  <si>
+    <t>三瓶 明裕</t>
+  </si>
+  <si>
+    <t>08055659519</t>
+  </si>
+  <si>
+    <t>kou-ran-10011408</t>
+  </si>
+  <si>
+    <t>蓝色 206款
+サイズ：[28]</t>
+  </si>
+  <si>
+    <t>静岡県浜松市北区細江町気賀123-1リーブホソエA-205</t>
+  </si>
+  <si>
+    <t>舩越 奈美子</t>
+  </si>
+  <si>
+    <t>09068075217</t>
+  </si>
+  <si>
+    <t>kou-ran-10011409</t>
+  </si>
+  <si>
+    <t>深蓝 009款
+サイズ：[33]</t>
+  </si>
+  <si>
+    <t>大分県大分市花高松2丁目8番35号</t>
+  </si>
+  <si>
+    <t>白下 宜生</t>
+  </si>
+  <si>
+    <t>09089167787</t>
+  </si>
+  <si>
+    <t>kou-ran-10011417</t>
+  </si>
+  <si>
+    <t>黑色 688款
+サイズ：[31]</t>
+  </si>
+  <si>
+    <t>09022459251</t>
+  </si>
+  <si>
+    <t>灰色 688款
+サイズ：[31]</t>
+  </si>
+  <si>
+    <t>kou-ran-10011422</t>
+  </si>
+  <si>
+    <t>浅蓝 013款
+サイズ：[29]</t>
+  </si>
+  <si>
+    <t>3792212</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+群馬県伊勢崎市堀下町１２９９-４</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+松島弘樹</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+08046857021</t>
+  </si>
+  <si>
+    <t>kou-ran-10011423</t>
+  </si>
+  <si>
+    <t>蓝色 688款
+サイズ：[30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+1200001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+東京都足立区大谷田５-３０-１１-２０１</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+勝又大樹</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+09060010934</t>
+  </si>
+  <si>
+    <t>kou-ran-10011425</t>
+  </si>
+  <si>
+    <t>米白 
+サイズ：2XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+171-0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+東京都豊島区長崎6-10-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+熊谷洋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+09055623442</t>
+  </si>
+  <si>
+    <t>628479738692</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>628479738681</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628479738670</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>628479738655</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>628479738644</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>628479738633</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>628479738622</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>628479738596</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>628479738585</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>628479738574</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
 7372603</t>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve"> 
 広島県呉市川尻町西6-4-21</t>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve"> 
 森安光明</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-0823876238</t>
-  </si>
-  <si>
-    <t>kou-ran-10011380</t>
-  </si>
-  <si>
-    <t>米白
-サイズ：XL</t>
-  </si>
-  <si>
-    <t>宮崎県宮崎市矢の先町122-1パークビル402</t>
-  </si>
-  <si>
-    <t>伊野 由紀子</t>
-  </si>
-  <si>
-    <t>09013698124</t>
-  </si>
-  <si>
-    <t>kou-ran-10011391</t>
-  </si>
-  <si>
-    <t>深蓝 021款
-サイズ：[30]</t>
-  </si>
-  <si>
-    <t>東京都目黒区八雲3-4-9二階</t>
-  </si>
-  <si>
-    <t>岩崎 邦夫</t>
-  </si>
-  <si>
-    <t>09032371171</t>
-  </si>
-  <si>
-    <t>kou-ran-10011394</t>
-  </si>
-  <si>
-    <t>浅蓝 013款
-サイズ：[30]</t>
-  </si>
-  <si>
-    <t>大阪府枚方市中宮東之町15-10-405クレール88 405号</t>
-  </si>
-  <si>
-    <t>中野 健三</t>
-  </si>
-  <si>
-    <t>09089814408</t>
-  </si>
-  <si>
-    <t>kou-ran-10011395</t>
-  </si>
-  <si>
-    <t>蓝色 206款
-サイズ：[38]</t>
-  </si>
-  <si>
-    <t>宮城県登米市米山町字桜岡今泉303</t>
-  </si>
-  <si>
-    <t>菅原 功人</t>
-  </si>
-  <si>
-    <t>0220552690</t>
-  </si>
-  <si>
-    <t>kou-ran-10011401</t>
-  </si>
-  <si>
-    <t>浅蓝 021款
-サイズ：[29]</t>
-  </si>
-  <si>
-    <t>福岡県福岡市博多区祇園町2-21フェルト627-412号</t>
-  </si>
-  <si>
-    <t>中田 啓一</t>
-  </si>
-  <si>
-    <t>09039921853</t>
-  </si>
-  <si>
-    <t>kou-ran-10011407</t>
-  </si>
-  <si>
-    <t>深蓝 021款
-サイズ：[28]</t>
-  </si>
-  <si>
-    <t>宮城県黒川郡大和町もみじケ丘１－３１－１７</t>
-  </si>
-  <si>
-    <t>三瓶 明裕</t>
-  </si>
-  <si>
-    <t>08055659519</t>
-  </si>
-  <si>
-    <t>kou-ran-10011408</t>
-  </si>
-  <si>
-    <t>蓝色 206款
-サイズ：[28]</t>
-  </si>
-  <si>
-    <t>静岡県浜松市北区細江町気賀123-1リーブホソエA-205</t>
-  </si>
-  <si>
-    <t>舩越 奈美子</t>
-  </si>
-  <si>
-    <t>09068075217</t>
-  </si>
-  <si>
-    <t>kou-ran-10011409</t>
-  </si>
-  <si>
-    <t>深蓝 009款
-サイズ：[33]</t>
-  </si>
-  <si>
-    <t>大分県大分市花高松2丁目8番35号</t>
-  </si>
-  <si>
-    <t>白下 宜生</t>
-  </si>
-  <si>
-    <t>09089167787</t>
-  </si>
-  <si>
-    <t>kou-ran-10011417</t>
-  </si>
-  <si>
-    <t>黑色 688款
-サイズ：[31]</t>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>埼玉県加須市久下1639-6</t>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>川島 秀夫</t>
-  </si>
-  <si>
-    <t>09022459251</t>
-  </si>
-  <si>
-    <t>灰色 688款
-サイズ：[31]</t>
-  </si>
-  <si>
-    <t>kou-ran-10011422</t>
-  </si>
-  <si>
-    <t>浅蓝 013款
-サイズ：[29]</t>
-  </si>
-  <si>
-    <t>3792212</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-群馬県伊勢崎市堀下町１２９９-４</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-松島弘樹</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-08046857021</t>
-  </si>
-  <si>
-    <t>kou-ran-10011423</t>
-  </si>
-  <si>
-    <t>蓝色 688款
-サイズ：[30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-1200001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-東京都足立区大谷田５-３０-１１-２０１</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-勝又大樹</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-09060010934</t>
-  </si>
-  <si>
-    <t>kou-ran-10011425</t>
-  </si>
-  <si>
-    <t>米白 
-サイズ：2XL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-171-0051</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-東京都豊島区長崎6-10-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-熊谷洋子</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-09055623442</t>
-  </si>
-  <si>
-    <t>628479738703</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>628479738692</t>
+    <t>修正前：628479738703
+修正後：
+628482838572</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ゴ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>628479738681</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 628479738670</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>628479738655</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>628479738644</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>628479738633</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>628479738622</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>628479738600</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>628479738596</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>628479738585</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>628479738574</t>
+    <t>修正前：628479738600
+修正後：
+628482841210</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ゴ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -348,7 +381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -390,6 +423,11 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="3">
@@ -441,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -522,6 +560,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1469,9 +1510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FY258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A12"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1835,28 +1876,28 @@
         <v>13</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>82</v>
+      <c r="K2" s="27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>13</v>
@@ -1865,25 +1906,25 @@
         <v>8800034</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>13</v>
@@ -1892,25 +1933,25 @@
         <v>1520023</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>13</v>
@@ -1919,25 +1960,25 @@
         <v>5731195</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>13</v>
@@ -1946,23 +1987,23 @@
         <v>9870311</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>13</v>
@@ -1971,25 +2012,25 @@
         <v>8120038</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>13</v>
@@ -1998,25 +2039,25 @@
         <v>9813622</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>13</v>
@@ -2025,25 +2066,25 @@
         <v>4311305</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>13</v>
@@ -2052,25 +2093,25 @@
         <v>8700915</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
       <c r="A11" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>13</v>
@@ -2079,13 +2120,13 @@
         <v>3470063</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K11" s="22"/>
     </row>
@@ -2093,7 +2134,7 @@
       <c r="A12" s="24"/>
       <c r="B12" s="15"/>
       <c r="C12" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>13</v>
@@ -2102,89 +2143,89 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="K12" s="22" t="s">
-        <v>90</v>
+      <c r="K12" s="27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:181" ht="121.95" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:181" ht="121.95" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:181" ht="121.95" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:181" ht="121.95" customHeight="1"/>
